--- a/biology/Origine et évolution du vivant/Vestiges_of_the_Natural_History_of_Creation/Vestiges_of_the_Natural_History_of_Creation.xlsx
+++ b/biology/Origine et évolution du vivant/Vestiges_of_the_Natural_History_of_Creation/Vestiges_of_the_Natural_History_of_Creation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vestiges of the Natural History of Creation est un livre publié anonymement en Angleterre en 1844. Il propose une théorie naturelle de l'évolution biologique et cosmique, reliant ensemble de nombreuses spéculations théoriques scientifiques de l'époque, et créant une controverse politique considérable dans la société victorienne d'alors, par son radicalisme et ses idées non orthodoxes.
@@ -513,7 +525,9 @@
           <t>Explanations : une suite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1845, une suite est publiée sous le titre Explanations: A Sequel to the Vestiges of the Natural History of Creation, avec la 4e édition de Vestiges, pour adresser des critiques à l'ouvrage original. Une seconde édition de cette suite est publiée un an plus tard, en 1846. Tout comme Vestiges, Explanations est aussi publiée anonymement sous la référence "By the author of that work".
 </t>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vestiges
-1844 (oct.) : Vestiges of the Natural History of Creation, 1st edition
+          <t>Vestiges</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1844 (oct.) : Vestiges of the Natural History of Creation, 1st edition
 1844 (déc.) : Vestiges of the Natural History of Creation, 2nd edition
 1845 (fév.) : Vestiges of the Natural History of Creation, 3rd edition
 1845 (mai.) : Vestiges of the Natural History of Creation, 4th edition
@@ -558,9 +577,43 @@
 1851 : Vestiges of the Natural History of Creation, 9th edition
 1853 : Vestiges of the Natural History of Creation, 10th edition
 1860 : Vestiges of the Natural History of Creation, 11th edition
-1884 : Vestiges of the Natural History of Creation, 12th edition (Posthumous)
-Explanations
-1845 (déc.) : Explanations, A Sequel, 1st edition
+1884 : Vestiges of the Natural History of Creation, 12th edition (Posthumous)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vestiges_of_the_Natural_History_of_Creation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vestiges_of_the_Natural_History_of_Creation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éditions de Vestiges et Explanations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Explanations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1845 (déc.) : Explanations, A Sequel, 1st edition
 1846 (jui.) : Explanations, A Sequel, 2nd edition</t>
         </is>
       </c>
